--- a/W1 微觀的尺度_顯微測量技術_植物細胞的滲透作用/圖表.xlsx
+++ b/W1 微觀的尺度_顯微測量技術_植物細胞的滲透作用/圖表.xlsx
@@ -8,38 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\麗山高中\探究與實作\生物\W1 微觀的尺度_顯微測量技術_植物細胞的滲透作用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0A168-2E44-4944-B502-A6A1B5481B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3BD68-5387-43D6-90DA-C95BC2210783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$5:$E$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$A$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$A$1</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t xml:space="preserve">不同濃度蔗糖溶液中的細胞變化 (原生質/細胞壁直徑)
 </t>
@@ -124,6 +121,34 @@
   </si>
   <si>
     <t>300/300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>濃度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生質長度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>細胞壁長度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>比值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -307,11 +332,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,10 +386,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,12 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,6 +459,83 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>紫洋蔥</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>細胞在不同溶液環境下</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>細胞壁長度和原生質長度的比值</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>變化</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -408,13 +548,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -428,10 +582,505 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$21:$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9B96-488D-B066-29A0D1AE4D88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="323599088"/>
+        <c:axId val="323598672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="323599088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>濃度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323598672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="323598672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>比值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323599088"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>原生質長度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A6F-4A81-96C5-3413C5438CB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>細胞壁長度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A6F-4A81-96C5-3413C5438CB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -441,17 +1090,75 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="100"/>
-        <c:axId val="1937441135"/>
-        <c:axId val="1937442383"/>
+        <c:overlap val="-27"/>
+        <c:axId val="318938704"/>
+        <c:axId val="483696928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1937441135"/>
+        <c:axId val="318938704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" sz="1400"/>
+                  <a:t>溶液濃度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50590292690686389"/>
+              <c:y val="0.89782178217821784"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -475,10 +1182,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -488,7 +1192,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1937442383"/>
+        <c:crossAx val="483696928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -496,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1937442383"/>
+        <c:axId val="483696928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,6 +1220,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+                  <a:t>長度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>𝜇𝑚</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.2878787878787881E-2"/>
+              <c:y val="0.12818170005976975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -533,10 +1310,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -546,10 +1320,46 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1937441135"/>
+        <c:crossAx val="318938704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -589,7 +1399,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -642,8 +1456,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -751,6 +1605,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -761,6 +1620,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -792,6 +1656,512 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1149,23 +2519,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AC7E42-77B5-4A29-8CC8-D5048D678DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="圖表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72873E42-A1AF-49E5-80DD-910EA48BDCA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8200896C-C56A-4F69-9154-DCD049D214C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,13 +2860,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -1498,248 +2913,402 @@
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="30.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="12"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="17"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="17"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6">
         <v>0.51</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="17"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="17"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6">
         <v>1.02</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="17"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1">
       <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>300</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16">
+      <c r="G8" s="16"/>
+      <c r="H8" s="15">
         <v>300</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" thickBot="1">
+    <row r="9" spans="1:16" ht="15.6" customHeight="1" thickBot="1">
       <c r="E9" s="6">
         <v>0.51</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>230</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16">
+      <c r="G9" s="16"/>
+      <c r="H9" s="15">
         <v>230</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" thickBot="1">
+    <row r="10" spans="1:16" ht="15.6" customHeight="1" thickBot="1">
       <c r="E10" s="6">
         <v>1.02</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>240</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16">
+      <c r="G10" s="16"/>
+      <c r="H10" s="15">
         <v>350</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>300</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14">
+        <v>300</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="K16" s="14">
+        <v>230</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14">
+        <v>230</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="J17" s="13">
+        <v>1.02</v>
+      </c>
+      <c r="K17" s="14">
+        <v>240</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14">
+        <v>350</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="J18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="9">
+        <v>300</v>
+      </c>
+      <c r="L21" s="9">
+        <v>300</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" s="9">
+        <v>300</v>
+      </c>
+      <c r="D22" s="9">
+        <v>230</v>
+      </c>
+      <c r="E22" s="9">
+        <v>240</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="9">
+        <v>230</v>
+      </c>
+      <c r="L22" s="9">
+        <v>230</v>
+      </c>
+      <c r="M22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="9">
+        <v>300</v>
+      </c>
+      <c r="D23" s="9">
+        <v>230</v>
+      </c>
+      <c r="E23" s="9">
+        <v>350</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="9">
+        <v>240</v>
+      </c>
+      <c r="L23" s="9">
+        <v>350</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.68571428571428572</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="44">
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
@@ -1750,6 +3319,18 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1761,8 +3342,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390A108-7A6C-4B31-83E1-6A53E0C2F1D7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA64603-95D0-417E-AA08-342CCE450AB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
